--- a/RestAssuredFramework/src/test/resources/excel/data.xlsx
+++ b/RestAssuredFramework/src/test/resources/excel/data.xlsx
@@ -4,22 +4,58 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="7670"/>
+    <workbookView windowWidth="18520" windowHeight="7670" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="validateCreateCustomerAPI" sheetId="1" r:id="rId1"/>
+    <sheet name="invalidCreateCustomerAPI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>steve</t>
+  </si>
+  <si>
+    <t>user333433777787@gmail.com</t>
+  </si>
+  <si>
+    <t>First user from Baliyari</t>
+  </si>
+  <si>
+    <t>VV78</t>
+  </si>
+  <si>
+    <t>First user from Baliyari5128</t>
+  </si>
+  <si>
+    <t>VV7899</t>
+  </si>
+  <si>
+    <t>First user from Baliyari51288238</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -30,6 +66,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -37,9 +88,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -53,36 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -91,6 +165,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -98,39 +180,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,37 +205,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,25 +219,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,55 +315,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,97 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,13 +422,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,36 +462,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -474,20 +484,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,135 +533,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,14 +986,110 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="37.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="28.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="user333433777787@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="user333433777787@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="user333433777787@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="user333433777787@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/RestAssuredFramework/src/test/resources/excel/data.xlsx
+++ b/RestAssuredFramework/src/test/resources/excel/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="7670" activeTab="1"/>
+    <workbookView windowWidth="18520" windowHeight="7670"/>
   </bookViews>
   <sheets>
     <sheet name="validateCreateCustomerAPI" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+  <si>
+    <t>validateCreateCustomerAPI</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -24,6 +30,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>steve</t>
@@ -52,8 +61,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -74,6 +83,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -81,32 +105,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,14 +132,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,21 +145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -165,11 +153,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,31 +175,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,25 +228,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,157 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,8 +425,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,30 +442,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,7 +465,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +502,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -515,15 +524,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,127 +545,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,55 +995,66 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="37.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="28.7272727272727" customWidth="1"/>
+    <col min="2" max="3" width="37.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="28.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="user333433777787@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="user333433777787@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="user333433777787@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId1" display="user333433777787@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1046,7 +1066,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1054,35 +1074,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
